--- a/reschedule_sheet.xlsx
+++ b/reschedule_sheet.xlsx
@@ -484,11 +484,11 @@
   </sheetPr>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="29.44" customWidth="1" style="4" min="1" max="1"/>
     <col width="60.16" customWidth="1" style="4" min="2" max="2"/>
@@ -530,7 +530,7 @@
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="5">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" s="4" t="inlineStr"/>
       <c r="B3" s="7" t="inlineStr">
         <is>
           <t>You can contact me on next monday at 8pm</t>
@@ -543,7 +543,7 @@
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="5">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" s="4" t="inlineStr"/>
       <c r="B4" s="7" t="inlineStr">
         <is>
           <t>you can contact at the end of this month</t>
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr"/>
       <c r="B5" s="7" t="inlineStr">
         <is>
           <t>you can contact at the end of this month</t>
@@ -569,7 +569,7 @@
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="5">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" s="4" t="inlineStr"/>
       <c r="B6" s="7" t="inlineStr">
         <is>
           <t>You can call me on everyday between 2 to 3 pm.</t>
@@ -582,7 +582,7 @@
       </c>
     </row>
     <row r="7" ht="35.05" customHeight="1" s="5">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" s="4" t="inlineStr"/>
       <c r="B7" s="7" t="inlineStr">
         <is>
           <t>you can call me last week of this month</t>
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="8" ht="57.45" customHeight="1" s="5">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" s="4" t="inlineStr"/>
       <c r="B8" s="7" t="inlineStr">
         <is>
           <t>Yes I am available on this weekend. So we can connect on that day.</t>
@@ -608,7 +608,7 @@
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="5">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" s="4" t="inlineStr"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>tommorow</t>
@@ -621,7 +621,7 @@
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="5">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" s="4" t="inlineStr"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>tommorow</t>
@@ -634,7 +634,7 @@
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="5">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" s="4" t="inlineStr"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>today at 12pm</t>
@@ -647,7 +647,7 @@
       </c>
     </row>
     <row r="12" ht="57.45" customHeight="1" s="5">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" s="4" t="inlineStr"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>thanks for calling but today I am busy can you please call me later</t>
@@ -660,7 +660,7 @@
       </c>
     </row>
     <row r="13" ht="35.05" customHeight="1" s="5">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" s="4" t="inlineStr"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>please schedule this call on very next day.</t>
@@ -673,7 +673,7 @@
       </c>
     </row>
     <row r="14" ht="102.2" customHeight="1" s="5">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" s="4" t="inlineStr"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Please reschedule my appointment on 3rd may nope please schedule on 5th of may around 1pm or you can do call in evening also.</t>
@@ -682,7 +682,7 @@
       <c r="C14" s="4" t="inlineStr"/>
     </row>
     <row r="15" ht="46.25" customHeight="1" s="5">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" s="4" t="inlineStr"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
           <t>Please let me know in advance for further meeting</t>
@@ -691,7 +691,7 @@
       <c r="C15" s="4" t="inlineStr"/>
     </row>
     <row r="16" ht="12.8" customHeight="1" s="5">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" s="4" t="inlineStr"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>Please dont call</t>
@@ -700,7 +700,7 @@
       <c r="C16" s="4" t="inlineStr"/>
     </row>
     <row r="17" ht="35.05" customHeight="1" s="5">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" s="4" t="inlineStr"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
           <t>on weekend there is availibility So we can connect</t>
@@ -709,7 +709,7 @@
       <c r="C17" s="4" t="inlineStr"/>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="5">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" s="4" t="inlineStr"/>
       <c r="B18" s="7" t="inlineStr">
         <is>
           <t>On Monday</t>
@@ -718,7 +718,7 @@
       <c r="C18" s="4" t="inlineStr"/>
     </row>
     <row r="19" ht="23.85" customHeight="1" s="5">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" s="4" t="inlineStr"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
           <t>ok schedule on this weekend</t>
@@ -727,7 +727,7 @@
       <c r="C19" s="4" t="inlineStr"/>
     </row>
     <row r="20" ht="23.85" customHeight="1" s="5">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" s="4" t="inlineStr"/>
       <c r="B20" s="7" t="inlineStr">
         <is>
           <t>ok schedule on this weekend</t>
@@ -736,7 +736,7 @@
       <c r="C20" s="4" t="inlineStr"/>
     </row>
     <row r="21" ht="12.8" customHeight="1" s="5">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" s="4" t="inlineStr"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
           <t>Next Week</t>
@@ -745,7 +745,7 @@
       <c r="C21" s="4" t="inlineStr"/>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="5">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" s="4" t="inlineStr"/>
       <c r="B22" s="7" t="inlineStr">
         <is>
           <t>next evening</t>
@@ -754,7 +754,7 @@
       <c r="C22" s="4" t="inlineStr"/>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="5">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" s="4" t="inlineStr"/>
       <c r="B23" s="7" t="inlineStr">
         <is>
           <t>next evening</t>
@@ -763,7 +763,7 @@
       <c r="C23" s="4" t="inlineStr"/>
     </row>
     <row r="24" ht="46.25" customHeight="1" s="5">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" s="4" t="inlineStr"/>
       <c r="B24" s="7" t="inlineStr">
         <is>
           <t>My schedule is tight today please call me another time</t>
@@ -772,7 +772,7 @@
       <c r="C24" s="4" t="inlineStr"/>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="5">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" s="4" t="inlineStr"/>
       <c r="B25" s="7" t="inlineStr">
         <is>
           <t>I will let you know</t>
@@ -781,7 +781,7 @@
       <c r="C25" s="4" t="inlineStr"/>
     </row>
     <row r="26" ht="23.85" customHeight="1" s="5">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" s="4" t="inlineStr"/>
       <c r="B26" s="7" t="inlineStr">
         <is>
           <t>i said around 6 in evening</t>
@@ -790,7 +790,7 @@
       <c r="C26" s="4" t="inlineStr"/>
     </row>
     <row r="27" ht="23.85" customHeight="1" s="5">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" s="4" t="inlineStr"/>
       <c r="B27" s="7" t="inlineStr">
         <is>
           <t>i said around 6 in evening</t>
@@ -799,7 +799,7 @@
       <c r="C27" s="4" t="inlineStr"/>
     </row>
     <row r="28" ht="57.45" customHeight="1" s="5">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" s="4" t="inlineStr"/>
       <c r="B28" s="7" t="inlineStr">
         <is>
           <t>I probably become free after end of the day so please call me then.</t>
@@ -808,7 +808,7 @@
       <c r="C28" s="4" t="inlineStr"/>
     </row>
     <row r="29" ht="57.45" customHeight="1" s="5">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" s="4" t="inlineStr"/>
       <c r="B29" s="7" t="inlineStr">
         <is>
           <t>I am occupied in something so you can contact me today around 7 pm</t>
@@ -817,7 +817,7 @@
       <c r="C29" s="4" t="inlineStr"/>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="5">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" s="4" t="inlineStr"/>
       <c r="B30" s="7" t="inlineStr">
         <is>
           <t>I am not sure</t>
@@ -826,7 +826,7 @@
       <c r="C30" s="4" t="inlineStr"/>
     </row>
     <row r="31" ht="46.25" customHeight="1" s="5">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" s="4" t="inlineStr"/>
       <c r="B31" s="7" t="inlineStr">
         <is>
           <t>I am not available today please reschedule my call on weekend</t>
@@ -835,7 +835,7 @@
       <c r="C31" s="4" t="inlineStr"/>
     </row>
     <row r="32" ht="23.85" customHeight="1" s="5">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" s="4" t="inlineStr"/>
       <c r="B32" s="7" t="inlineStr">
         <is>
           <t>I am available today dusk time</t>
@@ -844,7 +844,7 @@
       <c r="C32" s="4" t="inlineStr"/>
     </row>
     <row r="33" ht="23.85" customHeight="1" s="5">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" s="4" t="inlineStr"/>
       <c r="B33" s="7" t="inlineStr">
         <is>
           <t>I am available today dawn time</t>
@@ -853,7 +853,7 @@
       <c r="C33" s="4" t="inlineStr"/>
     </row>
     <row r="34" ht="23.85" customHeight="1" s="5">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" s="4" t="inlineStr"/>
       <c r="B34" s="7" t="inlineStr">
         <is>
           <t>can we connect on monday ?</t>
@@ -862,7 +862,7 @@
       <c r="C34" s="4" t="inlineStr"/>
     </row>
     <row r="35" ht="23.85" customHeight="1" s="5">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" s="4" t="inlineStr"/>
       <c r="B35" s="7" t="inlineStr">
         <is>
           <t>Can we connect later ?</t>
@@ -871,7 +871,7 @@
       <c r="C35" s="4" t="inlineStr"/>
     </row>
     <row r="36" ht="23.85" customHeight="1" s="5">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" s="4" t="inlineStr"/>
       <c r="B36" s="7" t="inlineStr">
         <is>
           <t>Can I call you later?</t>
@@ -880,7 +880,7 @@
       <c r="C36" s="4" t="inlineStr"/>
     </row>
     <row r="37" ht="23.85" customHeight="1" s="5">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" s="4" t="inlineStr"/>
       <c r="B37" s="7" t="inlineStr">
         <is>
           <t>call me in middle of the day</t>
@@ -889,7 +889,7 @@
       <c r="C37" s="4" t="inlineStr"/>
     </row>
     <row r="38" ht="23.85" customHeight="1" s="5">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" s="4" t="inlineStr"/>
       <c r="B38" s="7" t="inlineStr">
         <is>
           <t>call me in evening</t>
@@ -898,7 +898,7 @@
       <c r="C38" s="4" t="inlineStr"/>
     </row>
     <row r="39" ht="23.85" customHeight="1" s="5">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" s="4" t="inlineStr"/>
       <c r="B39" s="7" t="inlineStr">
         <is>
           <t>Call me in afternoon</t>
@@ -907,7 +907,7 @@
       <c r="C39" s="4" t="inlineStr"/>
     </row>
     <row r="40" ht="23.85" customHeight="1" s="5">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" s="4" t="inlineStr"/>
       <c r="B40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">call me at 7:45 pm </t>
@@ -916,7 +916,7 @@
       <c r="C40" s="4" t="inlineStr"/>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="5">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" s="4" t="inlineStr"/>
       <c r="B41" s="7" t="inlineStr">
         <is>
           <t>call me at 1pm</t>
@@ -925,7 +925,7 @@
       <c r="C41" s="4" t="inlineStr"/>
     </row>
     <row r="42" ht="23.85" customHeight="1" s="5">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" s="4" t="inlineStr"/>
       <c r="B42" s="7" t="inlineStr">
         <is>
           <t>before afternoon on weekdays</t>
@@ -934,7 +934,7 @@
       <c r="C42" s="4" t="inlineStr"/>
     </row>
     <row r="43" ht="23.85" customHeight="1" s="5">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" s="4" t="inlineStr"/>
       <c r="B43" s="7" t="inlineStr">
         <is>
           <t>anytime in weekend</t>
@@ -943,7 +943,7 @@
       <c r="C43" s="4" t="inlineStr"/>
     </row>
     <row r="44" ht="23.85" customHeight="1" s="5">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" s="4" t="inlineStr"/>
       <c r="B44" s="7" t="inlineStr">
         <is>
           <t>anytime in weekend</t>
@@ -952,7 +952,7 @@
       <c r="C44" s="4" t="inlineStr"/>
     </row>
     <row r="45" ht="23.85" customHeight="1" s="5">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" s="4" t="inlineStr"/>
       <c r="B45" s="7" t="inlineStr">
         <is>
           <t>anytime but not in weekdays</t>
@@ -961,7 +961,7 @@
       <c r="C45" s="4" t="inlineStr"/>
     </row>
     <row r="46" ht="23.85" customHeight="1" s="5">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" s="4" t="inlineStr"/>
       <c r="B46" s="7" t="inlineStr">
         <is>
           <t>anytime but not in weekdays</t>
@@ -970,7 +970,7 @@
       <c r="C46" s="4" t="inlineStr"/>
     </row>
     <row r="47" ht="35.05" customHeight="1" s="5">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" s="4" t="inlineStr"/>
       <c r="B47" s="7" t="inlineStr">
         <is>
           <t>anytime betwen 20th to 31st of this month</t>
@@ -979,7 +979,7 @@
       <c r="C47" s="4" t="inlineStr"/>
     </row>
     <row r="48" ht="35.05" customHeight="1" s="5">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" s="4" t="inlineStr"/>
       <c r="B48" s="7" t="inlineStr">
         <is>
           <t>anytime between upcoming 10 days</t>
@@ -988,7 +988,7 @@
       <c r="C48" s="4" t="inlineStr"/>
     </row>
     <row r="49" ht="35.05" customHeight="1" s="5">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" s="4" t="inlineStr"/>
       <c r="B49" s="7" t="inlineStr">
         <is>
           <t>anytime between upcoming 10 days</t>
@@ -997,7 +997,7 @@
       <c r="C49" s="4" t="inlineStr"/>
     </row>
     <row r="50" ht="23.85" customHeight="1" s="5">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" s="4" t="inlineStr"/>
       <c r="B50" s="7" t="inlineStr">
         <is>
           <t>anytime between 12pm to 6pm</t>
@@ -1006,7 +1006,7 @@
       <c r="C50" s="4" t="inlineStr"/>
     </row>
     <row r="51" ht="35.05" customHeight="1" s="5">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" s="4" t="inlineStr"/>
       <c r="B51" s="7" t="inlineStr">
         <is>
           <t>anytime before tommorow evening</t>
@@ -1015,7 +1015,7 @@
       <c r="C51" s="4" t="inlineStr"/>
     </row>
     <row r="52" ht="35.05" customHeight="1" s="5">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" s="4" t="inlineStr"/>
       <c r="B52" s="7" t="inlineStr">
         <is>
           <t>anytime before tommorow evening</t>
@@ -1024,7 +1024,7 @@
       <c r="C52" s="4" t="inlineStr"/>
     </row>
     <row r="53" ht="23.85" customHeight="1" s="5">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" s="4" t="inlineStr"/>
       <c r="B53" s="7" t="inlineStr">
         <is>
           <t>anytime after this week</t>
@@ -1033,7 +1033,7 @@
       <c r="C53" s="4" t="inlineStr"/>
     </row>
     <row r="54" ht="23.85" customHeight="1" s="5">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" s="4" t="inlineStr"/>
       <c r="B54" s="7" t="inlineStr">
         <is>
           <t>anytime after this week</t>
@@ -1042,7 +1042,7 @@
       <c r="C54" s="4" t="inlineStr"/>
     </row>
     <row r="55" ht="23.85" customHeight="1" s="5">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" s="4" t="inlineStr"/>
       <c r="B55" s="7" t="inlineStr">
         <is>
           <t>anytime after day after tomorrow</t>
@@ -1051,7 +1051,7 @@
       <c r="C55" s="4" t="inlineStr"/>
     </row>
     <row r="56" ht="23.85" customHeight="1" s="5">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" s="4" t="inlineStr"/>
       <c r="B56" s="7" t="inlineStr">
         <is>
           <t>you may call after 9</t>
